--- a/data/trans_dic/Q17F_D_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07569086573552676</v>
+        <v>0.07440950761803053</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0798362171647129</v>
+        <v>0.08259800063379857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08964999916618853</v>
+        <v>0.08954376488817058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1711472990448724</v>
+        <v>0.178524054201847</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08275733116007783</v>
+        <v>0.08434973913011314</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07360617844821148</v>
+        <v>0.07387827747971364</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08977606588186224</v>
+        <v>0.09137464300886634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1241187811194125</v>
+        <v>0.1257720819446499</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09058956360930459</v>
+        <v>0.09011123448501168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08454129430158057</v>
+        <v>0.08362894990806299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1000035737060128</v>
+        <v>0.1001962602343087</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1589089111533804</v>
+        <v>0.1588284723982521</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1870546672501746</v>
+        <v>0.1876829170804046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1698067301639448</v>
+        <v>0.1617345805747097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1821555806134811</v>
+        <v>0.1821760544764202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3444967569147848</v>
+        <v>0.3554195273234141</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1579061844260019</v>
+        <v>0.1545790601032601</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1381011858695647</v>
+        <v>0.1367927012176716</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1565540079579481</v>
+        <v>0.1538299017517208</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2203663039240964</v>
+        <v>0.2233546679759905</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.148587705660981</v>
+        <v>0.1509212235247306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.136218887107217</v>
+        <v>0.1357345002469862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1519257780164447</v>
+        <v>0.1522022841995657</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2474964459171136</v>
+        <v>0.245059004239804</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08532582252205126</v>
+        <v>0.08052599799633227</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1195018500454749</v>
+        <v>0.1185179489220906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06422536629870947</v>
+        <v>0.06227555895471981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.112709740880667</v>
+        <v>0.1181426577103321</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07379863864025621</v>
+        <v>0.0771548895304026</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06220486183715432</v>
+        <v>0.06236926646533741</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1034472732042803</v>
+        <v>0.1009583708609925</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1960362746495336</v>
+        <v>0.1910354170880219</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08636583506729746</v>
+        <v>0.08822793755071118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09226060462296171</v>
+        <v>0.09109693648540132</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09779057172176335</v>
+        <v>0.09745618033196278</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1754830580188919</v>
+        <v>0.1750447895145283</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1684765000244854</v>
+        <v>0.1703040269330307</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2283027514067791</v>
+        <v>0.226256783201906</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1502414345432816</v>
+        <v>0.1485938932617884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2240602963171119</v>
+        <v>0.2306781421773252</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1456482261507662</v>
+        <v>0.1468674635168633</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1211117559265947</v>
+        <v>0.1207576986125848</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1855303968951255</v>
+        <v>0.1819522585143319</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2849739406096292</v>
+        <v>0.280544747658807</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1415158937835802</v>
+        <v>0.1434208264058671</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1500342975495527</v>
+        <v>0.147519640483756</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1555202660000841</v>
+        <v>0.1538238310132644</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.242056454642881</v>
+        <v>0.2479122208324963</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08531188184220674</v>
+        <v>0.08442571997970946</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08157227008358597</v>
+        <v>0.07719556933875202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03540287810385323</v>
+        <v>0.03714315413153793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1101962139293745</v>
+        <v>0.1104263506240341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06089284616506373</v>
+        <v>0.06339319020586563</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07830986030482338</v>
+        <v>0.07753957864845668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05504629818629391</v>
+        <v>0.05777171472253739</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1540277194506801</v>
+        <v>0.1578373586548696</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08353766939588217</v>
+        <v>0.08396002694491717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08824563179149288</v>
+        <v>0.08777931921006668</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05579654612716291</v>
+        <v>0.05597813898261429</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1486803323713562</v>
+        <v>0.1470075257073885</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1889180209833575</v>
+        <v>0.1902436731128942</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.184918529092101</v>
+        <v>0.1770240180243652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1118196048966897</v>
+        <v>0.1142924969743301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2234957574351781</v>
+        <v>0.2169654599723192</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1369849888519157</v>
+        <v>0.1429896886391949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1600740919309416</v>
+        <v>0.1643192605031578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1300063191650667</v>
+        <v>0.1273937381063898</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2569633788116432</v>
+        <v>0.2534237977919006</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1453055096092866</v>
+        <v>0.146967513348562</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1483312832010857</v>
+        <v>0.1480376186081039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1081967902634607</v>
+        <v>0.1095823725461723</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.21806140956286</v>
+        <v>0.2166414831611896</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1719798346640838</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2030696231075505</v>
+        <v>0.2030696231075506</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1269480689405353</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0555736480703545</v>
+        <v>0.05687960205178431</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02817300922769359</v>
+        <v>0.02837701535242413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07702727994703551</v>
+        <v>0.07892667371097792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1431472250499453</v>
+        <v>0.1462219134195154</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07169051895582486</v>
+        <v>0.06993462515919255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09484103167506432</v>
+        <v>0.09582482149495637</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1095411534211551</v>
+        <v>0.1016166483744726</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1536079884134679</v>
+        <v>0.1538861202552942</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07439255086100824</v>
+        <v>0.07635417289224307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07172112009912703</v>
+        <v>0.07526054026162381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.107385969945993</v>
+        <v>0.1082829321057672</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1637927278497664</v>
+        <v>0.1646486585768986</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.203546134030273</v>
+        <v>0.2091569554604445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1489586366557935</v>
+        <v>0.1538055099602522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2059425603822298</v>
+        <v>0.2100049741013688</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2755722941480018</v>
+        <v>0.268750291725887</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2413805819887373</v>
+        <v>0.2377391756075366</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2322287262619149</v>
+        <v>0.2413648714683375</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2658133055075408</v>
+        <v>0.2616353048526718</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2537458461141378</v>
+        <v>0.2592252762354477</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1895050859043557</v>
+        <v>0.195097747853538</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.16007391628864</v>
+        <v>0.1672925475200869</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2020467459425627</v>
+        <v>0.2051794461321</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2463199077009354</v>
+        <v>0.246022313865927</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1171790911001672</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1971804265795824</v>
+        <v>0.1971804265795823</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09992232085913233</v>
+        <v>0.09893401673610963</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1012320754739105</v>
+        <v>0.1025004411143152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08600947301273901</v>
+        <v>0.08506062714123443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1549220346640626</v>
+        <v>0.155483951353327</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08891981649422753</v>
+        <v>0.0902789052807469</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08635091522460117</v>
+        <v>0.08721301620808282</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1053332143516699</v>
+        <v>0.1047794439535171</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1824357300025542</v>
+        <v>0.1817521118526164</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09939952449184666</v>
+        <v>0.09971838960066505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09889086624043472</v>
+        <v>0.1009015463817874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1034935303951981</v>
+        <v>0.1023855535387061</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1801363353524791</v>
+        <v>0.1784009952748548</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1518273941997595</v>
+        <v>0.152329866689401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.153977267576926</v>
+        <v>0.1574187809898576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.131102135720611</v>
+        <v>0.1332948673328272</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2162569685181539</v>
+        <v>0.2185726821096156</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1293639369910186</v>
+        <v>0.1303819067843012</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1240272069421639</v>
+        <v>0.1258940890855734</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1440903833876029</v>
+        <v>0.1479105322427597</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.232311224240831</v>
+        <v>0.2302646932043047</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1312144055351155</v>
+        <v>0.1335041870116532</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1287415760749981</v>
+        <v>0.1305554150086979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1335430614773775</v>
+        <v>0.1321691298538495</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2171252475412605</v>
+        <v>0.2170292545946958</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9646</v>
+        <v>9483</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19855</v>
+        <v>20541</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23637</v>
+        <v>23609</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18527</v>
+        <v>19325</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26137</v>
+        <v>26640</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28687</v>
+        <v>28793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37338</v>
+        <v>38003</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22498</v>
+        <v>22798</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40156</v>
+        <v>39944</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>53974</v>
+        <v>53391</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>67959</v>
+        <v>68089</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46006</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23839</v>
+        <v>23919</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42229</v>
+        <v>40222</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48027</v>
+        <v>48032</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37292</v>
+        <v>38474</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49872</v>
+        <v>48821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53823</v>
+        <v>53313</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>65111</v>
+        <v>63978</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>39944</v>
+        <v>40485</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65865</v>
+        <v>66900</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>86966</v>
+        <v>86657</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>103243</v>
+        <v>103431</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>71653</v>
+        <v>70947</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19102</v>
+        <v>18028</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25087</v>
+        <v>24880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13757</v>
+        <v>13339</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18554</v>
+        <v>19449</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22562</v>
+        <v>23588</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22461</v>
+        <v>22520</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33676</v>
+        <v>32866</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51598</v>
+        <v>50282</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45739</v>
+        <v>46725</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>52682</v>
+        <v>52017</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>52781</v>
+        <v>52600</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>75076</v>
+        <v>74889</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37718</v>
+        <v>38127</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47928</v>
+        <v>47498</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32181</v>
+        <v>31828</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36885</v>
+        <v>37974</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44527</v>
+        <v>44900</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43731</v>
+        <v>43604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>60397</v>
+        <v>59233</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75007</v>
+        <v>73841</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74946</v>
+        <v>75955</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>85671</v>
+        <v>84235</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>83939</v>
+        <v>83023</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>103558</v>
+        <v>106063</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14973</v>
+        <v>14818</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15233</v>
+        <v>14416</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7454</v>
+        <v>7821</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20904</v>
+        <v>20947</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14925</v>
+        <v>15538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19230</v>
+        <v>19041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13261</v>
+        <v>13918</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35238</v>
+        <v>36109</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35137</v>
+        <v>35314</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>38149</v>
+        <v>37948</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25190</v>
+        <v>25272</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>62218</v>
+        <v>61518</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33157</v>
+        <v>33390</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34533</v>
+        <v>33059</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23544</v>
+        <v>24065</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42396</v>
+        <v>41157</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33575</v>
+        <v>35047</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39308</v>
+        <v>40351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>31320</v>
+        <v>30691</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58787</v>
+        <v>57977</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>61117</v>
+        <v>61816</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>64125</v>
+        <v>63998</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>48847</v>
+        <v>49473</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>91252</v>
+        <v>90658</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3516</v>
+        <v>3599</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2806</v>
+        <v>2826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9094</v>
+        <v>9318</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25559</v>
+        <v>26107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5254</v>
+        <v>5125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10224</v>
+        <v>10330</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13259</v>
+        <v>12299</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29879</v>
+        <v>29933</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10159</v>
+        <v>10427</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14874</v>
+        <v>15608</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25675</v>
+        <v>25890</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>61104</v>
+        <v>61424</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12879</v>
+        <v>13234</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14834</v>
+        <v>15317</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24313</v>
+        <v>24792</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49203</v>
+        <v>47985</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17689</v>
+        <v>17422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25034</v>
+        <v>26019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32173</v>
+        <v>31668</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49357</v>
+        <v>50422</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25878</v>
+        <v>26642</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33197</v>
+        <v>34694</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48308</v>
+        <v>49057</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>91892</v>
+        <v>91781</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58965</v>
+        <v>58381</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75413</v>
+        <v>76358</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>69363</v>
+        <v>68598</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>99322</v>
+        <v>99683</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>83578</v>
+        <v>84856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>95347</v>
+        <v>96299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116224</v>
+        <v>115613</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>158310</v>
+        <v>157716</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>152085</v>
+        <v>152573</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>182862</v>
+        <v>186580</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>197657</v>
+        <v>195541</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>271802</v>
+        <v>269183</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>89594</v>
+        <v>89891</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>114706</v>
+        <v>117269</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>105729</v>
+        <v>107497</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>138645</v>
+        <v>140130</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>121593</v>
+        <v>122550</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>136949</v>
+        <v>139010</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>158988</v>
+        <v>163203</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>201589</v>
+        <v>199813</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>200763</v>
+        <v>204266</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>238060</v>
+        <v>241414</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>255047</v>
+        <v>252423</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>327613</v>
+        <v>327468</v>
       </c>
     </row>
     <row r="24">
